--- a/Mifos Automation Excels/Client/4010-CREATECLIENT-PERSON-SAVINGSACC.xlsx
+++ b/Mifos Automation Excels/Client/4010-CREATECLIENT-PERSON-SAVINGSACC.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>office</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>checked</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>please select valid savings product</t>
   </si>
   <si>
     <t>submit</t>
@@ -175,14 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,7 +183,6 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -493,16 +485,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
@@ -510,11 +502,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>26</v>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
@@ -522,11 +514,11 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>30</v>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2"/>
@@ -534,11 +526,11 @@
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -546,10 +538,10 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3"/>
@@ -558,10 +550,10 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3"/>
@@ -570,10 +562,10 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="3"/>
@@ -582,10 +574,10 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>4010563210</v>
       </c>
       <c r="C7" s="3"/>
@@ -594,10 +586,10 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>32906</v>
       </c>
       <c r="C8" s="3"/>
@@ -606,10 +598,10 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3"/>
@@ -618,11 +610,11 @@
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>28</v>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
@@ -630,11 +622,11 @@
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
+      <c r="B11" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
@@ -642,10 +634,10 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>42005</v>
       </c>
       <c r="C12" s="3"/>
@@ -654,34 +646,26 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,10 +675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -702,16 +686,7 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -728,32 +703,32 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
